--- a/doc/stock/excel_stock-trade-20111104.xlsx
+++ b/doc/stock/excel_stock-trade-20111104.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="15255"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25440" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="37">
   <si>
     <t xml:space="preserve"> 营业部名称：国泰君安证券上海四平路营业部</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 用户名：赵冬华</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 资金帐号：1516687</t>
   </si>
   <si>
     <t xml:space="preserve"> 查询日期：2011-11-05 09:54</t>
@@ -220,74 +214,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -299,7 +225,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="BFE7EA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -580,7 +506,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,9 +526,7 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -614,9 +538,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -629,7 +551,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -655,34 +577,34 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1">
@@ -693,13 +615,13 @@
         <v>20101011</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>601717</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
         <v>33.143000000000001</v>
@@ -714,7 +636,7 @@
         <v>165717.04999999999</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1">
@@ -725,13 +647,13 @@
         <v>20101011</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>601717</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <v>33.000999999999998</v>
@@ -746,7 +668,7 @@
         <v>165006</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
@@ -757,13 +679,13 @@
         <v>20101011</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>601717</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
         <v>33.091999999999999</v>
@@ -778,7 +700,7 @@
         <v>165462</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
@@ -789,13 +711,13 @@
         <v>20101011</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>11.4</v>
@@ -821,13 +743,13 @@
         <v>20101012</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>600238</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
         <v>15.1</v>
@@ -842,7 +764,7 @@
         <v>226500</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" hidden="1">
@@ -853,13 +775,13 @@
         <v>20101012</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>601717</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
         <v>34.090000000000003</v>
@@ -874,7 +796,7 @@
         <v>681801.99</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1">
@@ -885,13 +807,13 @@
         <v>20101018</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>600238</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
         <v>13.97</v>
@@ -906,7 +828,7 @@
         <v>209550</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1">
@@ -917,13 +839,13 @@
         <v>20101018</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>2023</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
         <v>14.718999999999999</v>
@@ -949,13 +871,13 @@
         <v>20101019</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>601717</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2">
         <v>33.152000000000001</v>
@@ -970,7 +892,7 @@
         <v>165760</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1">
@@ -981,13 +903,13 @@
         <v>20101019</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>601717</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2">
         <v>33.222000000000001</v>
@@ -1002,7 +924,7 @@
         <v>166110</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1">
@@ -1013,13 +935,13 @@
         <v>20101019</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>601717</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2">
         <v>33.200000000000003</v>
@@ -1034,7 +956,7 @@
         <v>166000</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1">
@@ -1045,13 +967,13 @@
         <v>20101019</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>601717</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2">
         <v>33.21</v>
@@ -1066,7 +988,7 @@
         <v>166049.49</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1">
@@ -1077,13 +999,13 @@
         <v>20101019</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
         <v>601717</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2">
         <v>34.165999999999997</v>
@@ -1098,7 +1020,7 @@
         <v>341660.9</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
@@ -1109,13 +1031,13 @@
         <v>20101019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
         <v>2023</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
         <v>14.798999999999999</v>
@@ -1141,13 +1063,13 @@
         <v>20101019</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
         <v>2023</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2">
         <v>14.74</v>
@@ -1173,13 +1095,13 @@
         <v>20101019</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>2023</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2">
         <v>14.814</v>
@@ -1205,13 +1127,13 @@
         <v>20101020</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2">
         <v>601717</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
         <v>33.9</v>
@@ -1226,7 +1148,7 @@
         <v>339000</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1">
@@ -1237,13 +1159,13 @@
         <v>20101020</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2">
         <v>601717</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
         <v>33.75</v>
@@ -1258,7 +1180,7 @@
         <v>168716.25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" hidden="1">
@@ -1269,13 +1191,13 @@
         <v>20101020</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2">
         <v>600237</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
         <v>7.77</v>
@@ -1290,7 +1212,7 @@
         <v>1554</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1">
@@ -1301,13 +1223,13 @@
         <v>20101020</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2">
         <v>2023</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2">
         <v>15.401999999999999</v>
@@ -1333,13 +1255,13 @@
         <v>20101020</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2">
         <v>2023</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2">
         <v>15.340999999999999</v>
@@ -1365,13 +1287,13 @@
         <v>20101020</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2">
         <v>2023</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
         <v>15.37</v>
@@ -1397,13 +1319,13 @@
         <v>20101027</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
         <v>2023</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2">
         <v>17.196000000000002</v>
@@ -1429,13 +1351,13 @@
         <v>20101102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
         <v>2023</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2">
         <v>17.923999999999999</v>
@@ -1461,13 +1383,13 @@
         <v>20101102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2">
         <v>2023</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2">
         <v>17.91</v>
@@ -1493,13 +1415,13 @@
         <v>20101102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
         <v>2023</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2">
         <v>17.88</v>
@@ -1525,13 +1447,13 @@
         <v>20101102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2">
         <v>2023</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2">
         <v>17.852</v>
@@ -1557,13 +1479,13 @@
         <v>20101102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <v>2023</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2">
         <v>17.82</v>
@@ -1589,13 +1511,13 @@
         <v>20101102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>2023</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2">
         <v>17.809999999999999</v>
@@ -1621,13 +1543,13 @@
         <v>20101102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
         <v>2023</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2">
         <v>17.87</v>
@@ -1653,13 +1575,13 @@
         <v>20101110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2">
         <v>600237</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2">
         <v>9.4499999999999993</v>
@@ -1674,7 +1596,7 @@
         <v>1880.55</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" hidden="1">
@@ -1685,13 +1607,13 @@
         <v>20101110</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2">
         <v>13.804</v>
@@ -1717,13 +1639,13 @@
         <v>20101122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2">
         <v>600010</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2">
         <v>4.1100000000000003</v>
@@ -1738,7 +1660,7 @@
         <v>9864</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1">
@@ -1749,13 +1671,13 @@
         <v>20101122</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2">
         <v>601866</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2">
         <v>4.07</v>
@@ -1770,7 +1692,7 @@
         <v>9768</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1">
@@ -1781,13 +1703,13 @@
         <v>20101122</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2">
         <v>897</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F41" s="2">
         <v>5.94</v>
@@ -1813,13 +1735,13 @@
         <v>20101124</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2">
         <v>600009</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2">
         <v>12.53</v>
@@ -1834,7 +1756,7 @@
         <v>10024</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" hidden="1">
@@ -1845,13 +1767,13 @@
         <v>20101207</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2">
         <v>2023</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2">
         <v>16.536000000000001</v>
@@ -1877,13 +1799,13 @@
         <v>20101207</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2">
         <v>2023</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2">
         <v>16.55</v>
@@ -1909,13 +1831,13 @@
         <v>20101207</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2">
         <v>2023</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F45" s="2">
         <v>16.556000000000001</v>
@@ -1941,13 +1863,13 @@
         <v>20101207</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2">
         <v>2023</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" s="2">
         <v>16.616</v>
@@ -1973,13 +1895,13 @@
         <v>20101207</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2">
         <v>2023</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F47" s="2">
         <v>16.61</v>
@@ -2005,13 +1927,13 @@
         <v>20101207</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2">
         <v>2023</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F48" s="2">
         <v>16.600000000000001</v>
@@ -2037,13 +1959,13 @@
         <v>20101207</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2">
         <v>2023</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2">
         <v>16.597999999999999</v>
@@ -2069,13 +1991,13 @@
         <v>20101207</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2">
         <v>2023</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F50" s="2">
         <v>16.588000000000001</v>
@@ -2101,13 +2023,13 @@
         <v>20101207</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2">
         <v>2023</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2">
         <v>16.579999999999998</v>
@@ -2133,13 +2055,13 @@
         <v>20101207</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2">
         <v>2023</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F52" s="2">
         <v>16.59</v>
@@ -2165,13 +2087,13 @@
         <v>20101207</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2">
         <v>2023</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2">
         <v>16.7</v>
@@ -2197,13 +2119,13 @@
         <v>20101207</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2">
         <v>2023</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2">
         <v>16.687999999999999</v>
@@ -2229,13 +2151,13 @@
         <v>20101207</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2">
         <v>2023</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2">
         <v>16.63</v>
@@ -2261,13 +2183,13 @@
         <v>20101208</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2">
         <v>600683</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2">
         <v>8.0169999999999995</v>
@@ -2282,7 +2204,7 @@
         <v>240500</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" hidden="1">
@@ -2293,13 +2215,13 @@
         <v>20101208</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2">
         <v>600683</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2">
         <v>8</v>
@@ -2314,7 +2236,7 @@
         <v>39200</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" hidden="1">
@@ -2325,13 +2247,13 @@
         <v>20101208</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2">
         <v>600683</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F58" s="2">
         <v>8</v>
@@ -2346,7 +2268,7 @@
         <v>31200</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1">
@@ -2357,13 +2279,13 @@
         <v>20101208</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2">
         <v>600683</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F59" s="2">
         <v>8</v>
@@ -2378,7 +2300,7 @@
         <v>31200</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" hidden="1">
@@ -2389,13 +2311,13 @@
         <v>20101208</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2">
         <v>600683</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F60" s="2">
         <v>8.0069999999999997</v>
@@ -2410,7 +2332,7 @@
         <v>39233</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1">
@@ -2421,13 +2343,13 @@
         <v>20101208</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2">
         <v>600683</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2">
         <v>7.9779999999999998</v>
@@ -2442,7 +2364,7 @@
         <v>39091</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:10" hidden="1">
@@ -2453,13 +2375,13 @@
         <v>20101208</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2">
         <v>600683</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2">
         <v>7.99</v>
@@ -2474,7 +2396,7 @@
         <v>31161</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:10" hidden="1">
@@ -2485,13 +2407,13 @@
         <v>20101208</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2">
         <v>600683</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F63" s="2">
         <v>7.98</v>
@@ -2506,7 +2428,7 @@
         <v>39102</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" hidden="1">
@@ -2517,13 +2439,13 @@
         <v>20101208</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2">
         <v>600683</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F64" s="2">
         <v>7.97</v>
@@ -2538,7 +2460,7 @@
         <v>39053</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1">
@@ -2549,13 +2471,13 @@
         <v>20101208</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2">
         <v>600683</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F65" s="2">
         <v>7.97</v>
@@ -2570,7 +2492,7 @@
         <v>31083</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1">
@@ -2581,13 +2503,13 @@
         <v>20101208</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2">
         <v>600683</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2">
         <v>7.96</v>
@@ -2602,7 +2524,7 @@
         <v>39004</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1">
@@ -2613,13 +2535,13 @@
         <v>20101208</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2">
         <v>600683</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2">
         <v>7.9829999999999997</v>
@@ -2634,7 +2556,7 @@
         <v>39118</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" hidden="1">
@@ -2645,13 +2567,13 @@
         <v>20101208</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2">
         <v>600683</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F68" s="2">
         <v>7.95</v>
@@ -2666,7 +2588,7 @@
         <v>38955</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1">
@@ -2677,13 +2599,13 @@
         <v>20101208</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2">
         <v>600683</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2">
         <v>7.99</v>
@@ -2698,7 +2620,7 @@
         <v>31960</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:10" hidden="1">
@@ -2709,13 +2631,13 @@
         <v>20101208</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2">
         <v>600683</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2">
         <v>7.9859999999999998</v>
@@ -2730,7 +2652,7 @@
         <v>38334</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" hidden="1">
@@ -2741,13 +2663,13 @@
         <v>20101208</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2">
         <v>600683</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2">
         <v>7.98</v>
@@ -2762,7 +2684,7 @@
         <v>35910</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:10" hidden="1">
@@ -2773,13 +2695,13 @@
         <v>20101208</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2">
         <v>600683</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2">
         <v>7.99</v>
@@ -2794,7 +2716,7 @@
         <v>31161</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:10" hidden="1">
@@ -2805,13 +2727,13 @@
         <v>20101208</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2">
         <v>600683</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2">
         <v>7.98</v>
@@ -2826,7 +2748,7 @@
         <v>39102</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:10" hidden="1">
@@ -2837,13 +2759,13 @@
         <v>20101208</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2">
         <v>600683</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2">
         <v>7.99</v>
@@ -2858,7 +2780,7 @@
         <v>31161</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10" hidden="1">
@@ -2869,13 +2791,13 @@
         <v>20101208</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2">
         <v>600683</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F75" s="2">
         <v>7.97</v>
@@ -2890,7 +2812,7 @@
         <v>39053</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10" hidden="1">
@@ -2901,13 +2823,13 @@
         <v>20101208</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2">
         <v>600683</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2">
         <v>7.96</v>
@@ -2922,7 +2844,7 @@
         <v>39004</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1">
@@ -2933,13 +2855,13 @@
         <v>20101208</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2">
         <v>600683</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2">
         <v>7.96</v>
@@ -2954,7 +2876,7 @@
         <v>18308</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:10" hidden="1">
@@ -2965,13 +2887,13 @@
         <v>20101208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2">
         <v>600683</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2">
         <v>7.9</v>
@@ -2986,7 +2908,7 @@
         <v>39500</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:10" hidden="1">
@@ -2997,13 +2919,13 @@
         <v>20101208</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2">
         <v>600683</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2">
         <v>7.907</v>
@@ -3018,7 +2940,7 @@
         <v>78281</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10" hidden="1">
@@ -3029,13 +2951,13 @@
         <v>20101208</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2">
         <v>600683</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2">
         <v>7.93</v>
@@ -3050,7 +2972,7 @@
         <v>78506</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:10" hidden="1">
@@ -3061,13 +2983,13 @@
         <v>20101208</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2">
         <v>600683</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F81" s="2">
         <v>7.9420000000000002</v>
@@ -3082,7 +3004,7 @@
         <v>68303</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:10" hidden="1">
@@ -3093,13 +3015,13 @@
         <v>20101208</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2">
         <v>600683</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F82" s="2">
         <v>7.95</v>
@@ -3114,7 +3036,7 @@
         <v>38957</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1">
@@ -3125,13 +3047,13 @@
         <v>20101208</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2">
         <v>600683</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2">
         <v>7.8710000000000004</v>
@@ -3146,7 +3068,7 @@
         <v>38566</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:10" hidden="1">
@@ -3157,13 +3079,13 @@
         <v>20101208</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2">
         <v>600683</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F84" s="2">
         <v>7.86</v>
@@ -3178,7 +3100,7 @@
         <v>38514</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:10" hidden="1">
@@ -3189,13 +3111,13 @@
         <v>20101208</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2">
         <v>600683</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F85" s="2">
         <v>7.87</v>
@@ -3210,7 +3132,7 @@
         <v>23610</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:10" hidden="1">
@@ -3221,13 +3143,13 @@
         <v>20101208</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2">
         <v>600683</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F86" s="2">
         <v>7.8019999999999996</v>
@@ -3242,7 +3164,7 @@
         <v>117030</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1">
@@ -3253,13 +3175,13 @@
         <v>20101208</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2">
         <v>600683</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F87" s="2">
         <v>7.8</v>
@@ -3274,7 +3196,7 @@
         <v>14820</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:10" hidden="1">
@@ -3285,13 +3207,13 @@
         <v>20101208</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2">
         <v>600683</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2">
         <v>7.8</v>
@@ -3306,7 +3228,7 @@
         <v>3120</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:10" hidden="1">
@@ -3317,13 +3239,13 @@
         <v>20101208</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2">
         <v>2023</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F89" s="2">
         <v>16.928000000000001</v>
@@ -3349,13 +3271,13 @@
         <v>20101208</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2">
         <v>2023</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2">
         <v>17</v>
@@ -3381,13 +3303,13 @@
         <v>20101208</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2">
         <v>2023</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F91" s="2">
         <v>17.007000000000001</v>
@@ -3413,13 +3335,13 @@
         <v>20101208</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2">
         <v>2023</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2">
         <v>17.010999999999999</v>
@@ -3445,13 +3367,13 @@
         <v>20101208</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2">
         <v>2023</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F93" s="2">
         <v>16.96</v>
@@ -3477,13 +3399,13 @@
         <v>20101208</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2">
         <v>2023</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F94" s="2">
         <v>16.95</v>
@@ -3509,13 +3431,13 @@
         <v>20101208</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2">
         <v>2023</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2">
         <v>16.96</v>
@@ -3541,13 +3463,13 @@
         <v>20101208</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2">
         <v>2023</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2">
         <v>16.78</v>
@@ -3573,13 +3495,13 @@
         <v>20101208</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2">
         <v>2023</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F97" s="2">
         <v>16.77</v>
@@ -3605,13 +3527,13 @@
         <v>20101208</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2">
         <v>2023</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F98" s="2">
         <v>16.77</v>
@@ -3637,13 +3559,13 @@
         <v>20101208</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2">
         <v>2023</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F99" s="2">
         <v>16.850000000000001</v>
@@ -3669,13 +3591,13 @@
         <v>20101210</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2">
         <v>600683</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F100" s="2">
         <v>7.63</v>
@@ -3690,7 +3612,7 @@
         <v>45780</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10" hidden="1">
@@ -3701,13 +3623,13 @@
         <v>20101210</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2">
         <v>600683</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F101" s="2">
         <v>7.63</v>
@@ -3722,7 +3644,7 @@
         <v>3052</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" hidden="1">
@@ -3733,13 +3655,13 @@
         <v>20101213</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2">
         <v>600010</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F102" s="2">
         <v>4.1399999999999997</v>
@@ -3754,7 +3676,7 @@
         <v>9931.86</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" hidden="1">
@@ -3765,13 +3687,13 @@
         <v>20101213</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2">
         <v>600009</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F103" s="2">
         <v>12.61</v>
@@ -3786,7 +3708,7 @@
         <v>10075.39</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:10" hidden="1">
@@ -3797,13 +3719,13 @@
         <v>20101213</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2">
         <v>601866</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F104" s="2">
         <v>4.17</v>
@@ -3818,7 +3740,7 @@
         <v>10003.83</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10" hidden="1">
@@ -3829,13 +3751,13 @@
         <v>20101213</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2">
         <v>600683</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F105" s="2">
         <v>7.92</v>
@@ -3850,7 +3772,7 @@
         <v>39600</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:10" hidden="1">
@@ -3861,13 +3783,13 @@
         <v>20101213</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2">
         <v>600683</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2">
         <v>7.92</v>
@@ -3882,7 +3804,7 @@
         <v>792</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:10" hidden="1">
@@ -3893,13 +3815,13 @@
         <v>20101213</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2">
         <v>897</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2">
         <v>5.39</v>
@@ -3925,13 +3847,13 @@
         <v>20101213</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2">
         <v>2023</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F108" s="2">
         <v>17.53</v>
@@ -3957,13 +3879,13 @@
         <v>20110302</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2">
         <v>600683</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F109" s="2">
         <v>7.8650000000000002</v>
@@ -3978,7 +3900,7 @@
         <v>393266</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:10" hidden="1">
@@ -3989,13 +3911,13 @@
         <v>20110302</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2">
         <v>600683</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F110" s="2">
         <v>7.8739999999999997</v>
@@ -4010,7 +3932,7 @@
         <v>236207.8</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:10" hidden="1">
@@ -4021,13 +3943,13 @@
         <v>20110302</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2">
         <v>600683</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2">
         <v>7.8760000000000003</v>
@@ -4042,7 +3964,7 @@
         <v>179566</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:10" hidden="1">
@@ -4053,13 +3975,13 @@
         <v>20110302</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2">
         <v>600683</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F112" s="2">
         <v>8.1620000000000008</v>
@@ -4074,7 +3996,7 @@
         <v>408081.6</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:10" hidden="1">
@@ -4085,13 +4007,13 @@
         <v>20110302</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2">
         <v>600683</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F113" s="2">
         <v>8.1790000000000003</v>
@@ -4106,7 +4028,7 @@
         <v>408942.33</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:10" hidden="1">
@@ -4117,13 +4039,13 @@
         <v>20110324</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2">
         <v>600115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F114" s="2">
         <v>6.31</v>
@@ -4138,7 +4060,7 @@
         <v>126200</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4149,13 +4071,13 @@
         <v>20110407</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2">
         <v>601106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F115" s="2">
         <v>5.69</v>
@@ -4170,7 +4092,7 @@
         <v>113800</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:10" hidden="1">
@@ -4181,13 +4103,13 @@
         <v>20110408</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2">
         <v>600196</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F116" s="2">
         <v>11.99</v>
@@ -4202,7 +4124,7 @@
         <v>119900</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:10" hidden="1">
@@ -4213,13 +4135,13 @@
         <v>20110412</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2">
         <v>600635</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F117" s="2">
         <v>7.1</v>
@@ -4234,7 +4156,7 @@
         <v>142000</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:10" hidden="1">
@@ -4245,13 +4167,13 @@
         <v>20110415</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2">
         <v>600509</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F118" s="2">
         <v>12.715</v>
@@ -4266,7 +4188,7 @@
         <v>127153</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:10" hidden="1">
@@ -4277,13 +4199,13 @@
         <v>20110422</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2">
         <v>600978</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2">
         <v>6.18</v>
@@ -4298,7 +4220,7 @@
         <v>123600</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:10" hidden="1">
@@ -4309,13 +4231,13 @@
         <v>20110509</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2">
         <v>725</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F120" s="2">
         <v>3.17</v>
@@ -4341,13 +4263,13 @@
         <v>20110512</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2">
         <v>600403</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F121" s="2">
         <v>31.76</v>
@@ -4362,7 +4284,7 @@
         <v>9528</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:10" hidden="1">
@@ -4373,13 +4295,13 @@
         <v>20110516</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2">
         <v>600456</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F122" s="2">
         <v>27.39</v>
@@ -4394,7 +4316,7 @@
         <v>8217</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:10" hidden="1">
@@ -4405,13 +4327,13 @@
         <v>20110516</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2">
         <v>600509</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F123" s="2">
         <v>13.3</v>
@@ -4426,7 +4348,7 @@
         <v>133000</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1">
@@ -4437,13 +4359,13 @@
         <v>20110517</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2">
         <v>725</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F124" s="2">
         <v>3.25</v>
@@ -4469,13 +4391,13 @@
         <v>20110518</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2">
         <v>600978</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2">
         <v>6.55</v>
@@ -4490,7 +4412,7 @@
         <v>131000</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:10" hidden="1">
@@ -4501,13 +4423,13 @@
         <v>20110617</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>725</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -4533,13 +4455,13 @@
         <v>20110810</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2">
         <v>600635</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2">
         <v>5</v>
@@ -4554,7 +4476,7 @@
         <v>50000</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:10" hidden="1">
@@ -4565,13 +4487,13 @@
         <v>20110810</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2">
         <v>600509</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F128" s="2">
         <v>9.76</v>
@@ -4586,7 +4508,7 @@
         <v>97600</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:10" hidden="1">
@@ -4597,13 +4519,13 @@
         <v>20110810</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2">
         <v>600115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F129" s="2">
         <v>5.17</v>
@@ -4618,7 +4540,7 @@
         <v>51700</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4629,13 +4551,13 @@
         <v>20110810</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2">
         <v>601106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F130" s="2">
         <v>4</v>
@@ -4650,7 +4572,7 @@
         <v>40000</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4661,13 +4583,13 @@
         <v>20110811</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2">
         <v>601106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F131" s="2">
         <v>3.97</v>
@@ -4682,7 +4604,7 @@
         <v>39700</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:10" hidden="1">
@@ -4693,13 +4615,13 @@
         <v>20110811</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2">
         <v>600260</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F132" s="2">
         <v>6.1040000000000001</v>
@@ -4714,7 +4636,7 @@
         <v>61042</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1">
@@ -4725,13 +4647,13 @@
         <v>20110812</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2">
         <v>600260</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F133" s="2">
         <v>6.5720000000000001</v>
@@ -4746,7 +4668,7 @@
         <v>65720</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:10" hidden="1">
@@ -4757,13 +4679,13 @@
         <v>20110812</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2">
         <v>600115</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F134" s="2">
         <v>5.53</v>
@@ -4778,7 +4700,7 @@
         <v>55300</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:10" hidden="1">
@@ -4789,13 +4711,13 @@
         <v>20110812</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2">
         <v>600978</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F135" s="2">
         <v>5.37</v>
@@ -4810,7 +4732,7 @@
         <v>53700</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:10" hidden="1">
@@ -4821,13 +4743,13 @@
         <v>20110812</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2">
         <v>600509</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F136" s="2">
         <v>10.039999999999999</v>
@@ -4842,7 +4764,7 @@
         <v>100400</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4853,13 +4775,13 @@
         <v>20110812</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2">
         <v>601106</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F137" s="2">
         <v>4.0599999999999996</v>
@@ -4874,7 +4796,7 @@
         <v>40600</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:10" hidden="1">
@@ -4885,13 +4807,13 @@
         <v>20110812</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2">
         <v>600635</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F138" s="2">
         <v>5.13</v>
@@ -4906,7 +4828,7 @@
         <v>51300</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:10" hidden="1">
@@ -4917,13 +4839,13 @@
         <v>20110815</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2">
         <v>725</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F139" s="2">
         <v>2.5499999999999998</v>
@@ -4949,13 +4871,13 @@
         <v>20110817</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2">
         <v>725</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F140" s="2">
         <v>2.57</v>
@@ -4981,13 +4903,13 @@
         <v>20111031</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2">
         <v>600299</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F141" s="2">
         <v>9.99</v>
@@ -5002,7 +4924,7 @@
         <v>99900</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:10" hidden="1">
@@ -5013,13 +4935,13 @@
         <v>20111103</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D142" s="2">
         <v>600978</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F142" s="2">
         <v>5.01</v>
@@ -5034,7 +4956,7 @@
         <v>50100</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:10" hidden="1">
@@ -5045,13 +4967,13 @@
         <v>20111103</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2">
         <v>600978</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F143" s="2">
         <v>5.08</v>
@@ -5066,7 +4988,7 @@
         <v>50800</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:10" hidden="1">
@@ -5077,13 +4999,13 @@
         <v>20111104</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2">
         <v>600509</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F144" s="2">
         <v>9.8699999999999992</v>
@@ -5098,7 +5020,7 @@
         <v>98700</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/stock/excel_stock-trade-20111104.xlsx
+++ b/doc/stock/excel_stock-trade-20111104.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="25440" windowHeight="15255"/>
   </bookViews>
@@ -502,11 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -927,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -959,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -991,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>24</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>26</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>28</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>29</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>30</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>31</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>32</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>34</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>35</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>36</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>38</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>40</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>46</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>47</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>49</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>51</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>52</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>54</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>55</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>56</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>58</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>59</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>61</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>62</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>63</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>64</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>65</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>66</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>67</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>68</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>69</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>70</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>71</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>72</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>73</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>74</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>75</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>76</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>77</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>78</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>79</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>80</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>81</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>82</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>83</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>84</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>85</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>86</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>87</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>88</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>89</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>90</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>91</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>92</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>93</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>94</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>95</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>96</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>97</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>98</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>99</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>100</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>101</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>102</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>103</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>104</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>105</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>106</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>107</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>108</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>110</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>111</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>112</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>113</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>114</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="2">
         <v>115</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="2">
         <v>116</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10">
       <c r="A123" s="2">
         <v>117</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="A124" s="2">
         <v>118</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="A125" s="2">
         <v>119</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="2">
         <v>120</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="2">
         <v>121</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>122</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>123</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10">
       <c r="A132" s="2">
         <v>126</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="2">
         <v>127</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="2">
         <v>128</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="2">
         <v>129</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="2">
         <v>130</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="2">
         <v>132</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="2">
         <v>133</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10">
       <c r="A140" s="2">
         <v>134</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>103831149</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10">
       <c r="A141" s="2">
         <v>135</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10">
       <c r="A142" s="2">
         <v>136</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10">
       <c r="A143" s="2">
         <v>137</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10">
       <c r="A144" s="2">
         <v>138</v>
       </c>
@@ -5025,11 +5025,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J144">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="601106"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
@@ -5046,6 +5042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5059,6 +5056,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5072,6 +5070,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
